--- a/src/test/resources/testdata/Leadsdata2.xlsx
+++ b/src/test/resources/testdata/Leadsdata2.xlsx
@@ -23,481 +23,481 @@
     <t>3102101021</t>
   </si>
   <si>
-    <t>1722335128426lh26hzzudwxzamug</t>
+    <t>1722503835185cffzrtx7guqgspvb</t>
   </si>
   <si>
     <t>3102101022</t>
   </si>
   <si>
-    <t>1722335128616jxqwwumffcoih4qg</t>
+    <t>172250383541525tadrpk7pxipgoo</t>
   </si>
   <si>
     <t>3102101023</t>
   </si>
   <si>
-    <t>1722335128709gj565nx4exig3rp6</t>
+    <t>1722503835593fw6awwxflkwjnral</t>
   </si>
   <si>
     <t>3102101024</t>
   </si>
   <si>
-    <t>1722335128801cztiuwc7gr53m4zb</t>
+    <t>1722503835821xud4p75y27z7cdgr</t>
   </si>
   <si>
     <t>3102101025</t>
   </si>
   <si>
-    <t>1722335128923eenssrp2hvyncolj</t>
+    <t>17225038360274x2kfij4j63jvx6y</t>
   </si>
   <si>
     <t>3102101026</t>
   </si>
   <si>
-    <t>1722335129033saiecygf4skjeb72</t>
+    <t>1722503836212rkw43edcwmgz3yfv</t>
   </si>
   <si>
     <t>3102101027</t>
   </si>
   <si>
-    <t>1722335129170jqleu6r2syhvxv42</t>
+    <t>17225038363955cmpd3544matt55e</t>
   </si>
   <si>
     <t>3102101028</t>
   </si>
   <si>
-    <t>17223351292943ggimfgodigbbljm</t>
+    <t>1722503836575brobq3pcmxqt3gvu</t>
   </si>
   <si>
     <t>3102101029</t>
   </si>
   <si>
-    <t>1722335129433z2bsjd6h5vx5gfgl</t>
+    <t>17225038367917iv7np5gpa47tt2c</t>
   </si>
   <si>
     <t>3102101030</t>
   </si>
   <si>
-    <t>1722335129614dhsqz5qyr4kdqwk3</t>
+    <t>1722503836983ucpddfvbjzctzhld</t>
   </si>
   <si>
     <t>3102101031</t>
   </si>
   <si>
-    <t>1722335129724aucdoxb2jnpx2i63</t>
+    <t>1722503837183plrmq434jw5abwey</t>
   </si>
   <si>
     <t>3102101032</t>
   </si>
   <si>
-    <t>1722335129853ydnecu2ylp3ymo6n</t>
+    <t>1722503837318xq4dsi4fpjhrij4y</t>
   </si>
   <si>
     <t>3102101033</t>
   </si>
   <si>
-    <t>1722335129982wza4lvwoffg24saz</t>
+    <t>1722503837553i36trrf4lgrenasx</t>
   </si>
   <si>
     <t>3102101034</t>
   </si>
   <si>
-    <t>1722335130076gt5drxnoh3tp27gk</t>
+    <t>1722503837726b6vun4kkdep6ynkx</t>
   </si>
   <si>
     <t>3102101035</t>
   </si>
   <si>
-    <t>1722335130197rk5irfkhagbfouk7</t>
+    <t>1722503837921bs6bpt4eg4l3gypw</t>
   </si>
   <si>
     <t>3102101036</t>
   </si>
   <si>
-    <t>1722335130285l3xquzb73hoo4nzo</t>
+    <t>1722503838136hrkh2ynupbreeftk</t>
   </si>
   <si>
     <t>3102101037</t>
   </si>
   <si>
-    <t>17223351304132cvj5pklourtexs7</t>
+    <t>17225038382942c37k3n5a2xreaud</t>
   </si>
   <si>
     <t>3102101038</t>
   </si>
   <si>
-    <t>1722335130525r5aglcau4hezlhyw</t>
+    <t>1722503838459ntmxlwemwf2oryem</t>
   </si>
   <si>
     <t>3102101039</t>
   </si>
   <si>
-    <t>17223351306707l75ibsjhg4gq2lj</t>
+    <t>1722503838670nawfl3swfplhr2h6</t>
   </si>
   <si>
     <t>3102101040</t>
   </si>
   <si>
-    <t>17223351308015eaubydqbfchjwuk</t>
+    <t>1722503838847huh2wkhwd7es4a5e</t>
   </si>
   <si>
     <t>3102101041</t>
   </si>
   <si>
-    <t>1722335130971bpohzc6cyisenfmi</t>
+    <t>1722503839023rnyaw6aatlqsikes</t>
   </si>
   <si>
     <t>3102101042</t>
   </si>
   <si>
-    <t>1722335131160nhwgl5qupfpkkcga</t>
+    <t>1722503839222vrm6ohuix7sdrbck</t>
   </si>
   <si>
     <t>3102101043</t>
   </si>
   <si>
-    <t>1722335131305x43spdveu4wpcrlo</t>
+    <t>1722503839390zhxuuigaziyt33ui</t>
   </si>
   <si>
     <t>3102101044</t>
   </si>
   <si>
-    <t>1722335131445si5cbxpgxcbvewdu</t>
+    <t>1722503839617lzxrqrx2wde4xtny</t>
   </si>
   <si>
     <t>3102101045</t>
   </si>
   <si>
-    <t>17223351316852q673cpghs6uq7qe</t>
+    <t>1722503839783n4x6oszocv37fkit</t>
   </si>
   <si>
     <t>3102101046</t>
   </si>
   <si>
-    <t>1722335131796u4rbq5yrrwvi2rqk</t>
+    <t>1722503839977lbj7tiurpsofjuc4</t>
   </si>
   <si>
     <t>3102101047</t>
   </si>
   <si>
-    <t>1722335131912i77ju7rjrebjqgic</t>
+    <t>17225038401497bpqqxp6huieaqmm</t>
   </si>
   <si>
     <t>3102101048</t>
   </si>
   <si>
-    <t>1722335132047pri6uhtk3k5xroji</t>
+    <t>1722503840329yhympvt3fllsudl6</t>
   </si>
   <si>
     <t>3102101049</t>
   </si>
   <si>
-    <t>1722335132184ufq5pxmxbeo4o6sv</t>
+    <t>17225038405264e7ju3zzutkvk7gb</t>
   </si>
   <si>
     <t>3102101050</t>
   </si>
   <si>
-    <t>17223351324257prsusu6ob6jzl4h</t>
+    <t>1722503840657w42qh7oj267dxlue</t>
   </si>
   <si>
     <t>3102101051</t>
   </si>
   <si>
-    <t>1722335132563xblm5zl7aybl7zl3</t>
+    <t>1722503840863ufsqudpr5tcncw7k</t>
   </si>
   <si>
     <t>3102101052</t>
   </si>
   <si>
-    <t>17223351326866t6nqopw2s6ckzsh</t>
+    <t>1722503841107nghmoqwehorgg655</t>
   </si>
   <si>
     <t>3102101053</t>
   </si>
   <si>
-    <t>1722335132794jert77h4phtcrbjt</t>
+    <t>1722503841292epz4h3eyswvaf35i</t>
   </si>
   <si>
     <t>3102101054</t>
   </si>
   <si>
-    <t>1722335132918wxdrjd6f5qoggzgs</t>
+    <t>1722503841424rzmsv72lf7zg6j33</t>
   </si>
   <si>
     <t>3102101055</t>
   </si>
   <si>
-    <t>1722335133127jvkdlppxqv77qhrw</t>
+    <t>17225038416155x5mybkrv7k2lrsx</t>
   </si>
   <si>
     <t>3102101056</t>
   </si>
   <si>
-    <t>1722335133209xme77zkmjwpycnbd</t>
+    <t>1722503841788nosr3vo2snmpkpux</t>
   </si>
   <si>
     <t>3102101057</t>
   </si>
   <si>
-    <t>1722335133337tvvsksua6z7t2ejq</t>
+    <t>1722503841960yvccexkw5qla7srq</t>
   </si>
   <si>
     <t>3102101058</t>
   </si>
   <si>
-    <t>17223351334597ugtm6p56blyzwj4</t>
+    <t>1722503842213dmm3qj3sly6pczbr</t>
   </si>
   <si>
     <t>3102101059</t>
   </si>
   <si>
-    <t>1722335133555r5id7hgcg3r46oq2</t>
+    <t>1722503842387ehcwsxxtziksilqq</t>
   </si>
   <si>
     <t>3102101060</t>
   </si>
   <si>
-    <t>1722335133663kr4cimp6ng6g5pm6</t>
+    <t>1722503842600da4rejzldn3f2tny</t>
   </si>
   <si>
     <t>3102101061</t>
   </si>
   <si>
-    <t>1722335133793lb6zx3wb7qlifbjm</t>
+    <t>17225038427895njofov4vvnyfnyu</t>
   </si>
   <si>
     <t>3102101062</t>
   </si>
   <si>
-    <t>1722335133900xac56ekvou3hvwqs</t>
+    <t>1722503842983ftiteh42bvq6p3nb</t>
   </si>
   <si>
     <t>3102101063</t>
   </si>
   <si>
-    <t>1722335134041ljlxpiy4hrz3pvwy</t>
+    <t>1722503843164taw66azfqlpkzpmr</t>
   </si>
   <si>
     <t>3102101064</t>
   </si>
   <si>
-    <t>1722335134184kfqazks7gwijmu6s</t>
+    <t>1722503843340zu7am6ikdo7ep3z3</t>
   </si>
   <si>
     <t>3102101065</t>
   </si>
   <si>
-    <t>1722335134292mxnt33caijhocrxq</t>
+    <t>1722503843480athufukqlc5mjhme</t>
   </si>
   <si>
     <t>3102101066</t>
   </si>
   <si>
-    <t>1722335134425vuhtgppjd4migxh2</t>
+    <t>17225038436185w7hd5ozc3kiz3z7</t>
   </si>
   <si>
     <t>3102101067</t>
   </si>
   <si>
-    <t>1722335134528iyhtut56l7m2zimh</t>
+    <t>1722503843802qm54sez7d2ydyp67</t>
   </si>
   <si>
     <t>3102101068</t>
   </si>
   <si>
-    <t>1722335134652orv4gtd4v6squnth</t>
+    <t>1722503843978gkvckknwn5amscvt</t>
   </si>
   <si>
     <t>3102101069</t>
   </si>
   <si>
-    <t>1722335134775nwbn45xdpf572bel</t>
+    <t>1722503844153ua2nphukn4paloek</t>
   </si>
   <si>
     <t>3102101070</t>
   </si>
   <si>
-    <t>1722335134878qfpm3a5mn4hmkaxk</t>
+    <t>1722503844427aih2suom3fmkh4tr</t>
   </si>
   <si>
     <t>3102101071</t>
   </si>
   <si>
-    <t>1722335135007hi3rwi5og45mcpct</t>
+    <t>1722503844600ww6wxqcn5psh7voq</t>
   </si>
   <si>
     <t>3102101072</t>
   </si>
   <si>
-    <t>1722335135124kfojbuicyoxv6qnb</t>
+    <t>1722503844775lrjva6ivwhvfkfyx</t>
   </si>
   <si>
     <t>3102101073</t>
   </si>
   <si>
-    <t>1722335135250ihjwgrr3kfs6365s</t>
+    <t>1722503844907qt7r3gfa3effqfyx</t>
   </si>
   <si>
     <t>3102101074</t>
   </si>
   <si>
-    <t>17223351353782cftbz2r4dzn2urp</t>
+    <t>1722503845069os26dfljtys66nsl</t>
   </si>
   <si>
     <t>3102101075</t>
   </si>
   <si>
-    <t>17223351355005y4xos3foiuag2g2</t>
+    <t>1722503845250jyw5ixv5dm3ovyxw</t>
   </si>
   <si>
     <t>3102101076</t>
   </si>
   <si>
-    <t>1722335135578ho3646fwdyi4sdft</t>
+    <t>1722503845412i7li4ssvo5ws6yce</t>
   </si>
   <si>
     <t>3102101077</t>
   </si>
   <si>
-    <t>17223351356903eosx37iacwcq3cb</t>
+    <t>1722503845588pdpozt6wk7o37hba</t>
   </si>
   <si>
     <t>3102101078</t>
   </si>
   <si>
-    <t>172233513580856726rxshjcmoqpc</t>
+    <t>1722503845766q7szphs5qvx7ya7o</t>
   </si>
   <si>
     <t>3102101079</t>
   </si>
   <si>
-    <t>1722335135954wyob2awlzyiogbo5</t>
+    <t>1722503846029rjrris3piihtacih</t>
   </si>
   <si>
     <t>3102101080</t>
   </si>
   <si>
-    <t>1722335136061xc2rhr7phfvfms32</t>
+    <t>1722503846331nm24ayra3ed6uz3l</t>
   </si>
   <si>
     <t>3102101081</t>
   </si>
   <si>
-    <t>1722335136167d7uwvnwh64d4k4wo</t>
+    <t>1722503846512kl6pyd6nr223u4tx</t>
   </si>
   <si>
     <t>3102101082</t>
   </si>
   <si>
-    <t>1722335136239x7ll3ijdwqs4i6j3</t>
+    <t>17225038466985nkkeyjk2oca3ji7</t>
   </si>
   <si>
     <t>3102101083</t>
   </si>
   <si>
-    <t>1722335136361yrfhadtzqoxofotv</t>
+    <t>1722503846843477fkqup7vvkuuzg</t>
   </si>
   <si>
     <t>3102101084</t>
   </si>
   <si>
-    <t>1722335136461y2rllfapharmd37s</t>
+    <t>1722503847039sjfewf2fqjqswklg</t>
   </si>
   <si>
     <t>3102101085</t>
   </si>
   <si>
-    <t>1722335136583x6goscxskw6jcyhn</t>
+    <t>1722503847166bm5tmog6ahoa5vvo</t>
   </si>
   <si>
     <t>3102101086</t>
   </si>
   <si>
-    <t>1722335136665obli5iqrocjn23j6</t>
+    <t>1722503847345qkpmc6nli2c53wa6</t>
   </si>
   <si>
     <t>3102101087</t>
   </si>
   <si>
-    <t>1722335136788e3dgwexnokmjcp2w</t>
+    <t>1722503847584ljj555kqpjj7dljh</t>
   </si>
   <si>
     <t>3102101088</t>
   </si>
   <si>
-    <t>1722335136932bl6trdrw42434fnf</t>
+    <t>1722503847774byav2imcktxt47qr</t>
   </si>
   <si>
     <t>3102101089</t>
   </si>
   <si>
-    <t>1722335137037al7acw7mlkmehqrq</t>
+    <t>1722503847916bplpujhm4ltxtnnp</t>
   </si>
   <si>
     <t>3102101090</t>
   </si>
   <si>
-    <t>17223351371636xwsk46cfkjnxgph</t>
+    <t>1722503848094c2molkr2lzaj46dw</t>
   </si>
   <si>
     <t>3102101091</t>
   </si>
   <si>
-    <t>1722335137253e4f4juludu4zwbf3</t>
+    <t>1722503848266gqh4rdfrfztemqzh</t>
   </si>
   <si>
     <t>3102101092</t>
   </si>
   <si>
-    <t>1722335137380vlazmkwqossocawd</t>
+    <t>17225038485155dcelmjsqgw5lygl</t>
   </si>
   <si>
     <t>3102101093</t>
   </si>
   <si>
-    <t>1722335137530oaabkktomnofsuop</t>
+    <t>1722503848707rqvrs2m64xjyr7to</t>
   </si>
   <si>
     <t>3102101094</t>
   </si>
   <si>
-    <t>1722335137640edpwyjxxzqqb6ddt</t>
+    <t>1722503848867kfnusek6axunhmzn</t>
   </si>
   <si>
     <t>3102101095</t>
   </si>
   <si>
-    <t>1722335137785nbnfa2ohdximfy3x</t>
+    <t>1722503849052c4g7npo7ju3umtna</t>
   </si>
   <si>
     <t>3102101096</t>
   </si>
   <si>
-    <t>1722335137893cnrdm4fn6a56a4cq</t>
+    <t>1722503849229e7mnppylhlljvgcm</t>
   </si>
   <si>
     <t>3102101097</t>
   </si>
   <si>
-    <t>1722335138019vcgkpv6bjax4qrpe</t>
+    <t>17225038494157h3jyinnmssh2f5y</t>
   </si>
   <si>
     <t>3102101098</t>
   </si>
   <si>
-    <t>1722335138098xju35gf7sb4cgf5t</t>
+    <t>17225038495953go2pyljbatgmm7i</t>
   </si>
   <si>
     <t>3102101099</t>
   </si>
   <si>
-    <t>1722335138198jbeqlitau7flhjl6</t>
+    <t>17225038497723p3le3xzdqjmwsj2</t>
   </si>
   <si>
     <t>3102101100</t>
   </si>
   <si>
-    <t>17223351383395544crmcfuvwz3tf</t>
+    <t>1722503849951xkztcimn3q6bsjvo</t>
   </si>
   <si>
     <t/>
